--- a/AutomationFramework/excel_logs/hardware_test_hw_frequency_power_modeid_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_frequency_power_modeid_logs.xlsx
@@ -516,7 +516,7 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:721ca37d-111a-49d3-9611-3f9cd4611e8f"
+&lt;rpc-reply message-id="urn:uuid:f9e4935a-5ce7-4176-aaf1-30364dd260e6"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
@@ -558,6 +558,46 @@
           <t>hw_target_output_power</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;get&gt;
+    &lt;filter type="subtree"&gt;
+      &lt;components xmlns="http://openconfig.net/yang/platform"&gt;
+        &lt;component&gt;
+          &lt;name&gt;OCH-1-1&lt;/name&gt;
+             &lt;optical-channel xmlns="http://openconfig.net/yang/terminal-device"&gt;
+               &lt;config&gt;
+                 &lt;target-output-power&gt;&lt;/target-output-power&gt;
+               &lt;/config&gt;
+             &lt;/optical-channel&gt;
+        &lt;/component&gt;
+      &lt;/components&gt;
+    &lt;/filter&gt;
+&lt;/get&gt;</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:55b8d346-9bdb-478d-b6c8-21e357f6ef6a"
+ xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
+ ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
+ xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+ &lt;data&gt;
+  &lt;components xmlns="http://openconfig.net/yang/platform"&gt;
+   &lt;component&gt;
+    &lt;name&gt;OCH-1-1&lt;/name&gt;
+    &lt;optical-channel xmlns="http://openconfig.net/yang/terminal-device"&gt;
+     &lt;config&gt;
+      &lt;target-output-power&gt;-5.70&lt;/target-output-power&gt;
+     &lt;/config&gt;
+    &lt;/optical-channel&gt;
+   &lt;/component&gt;
+  &lt;/components&gt;
+ &lt;/data&gt;
+&lt;/rpc-reply&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -583,10 +623,48 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;get&gt;
+    &lt;filter type="subtree"&gt;
+      &lt;components xmlns="http://openconfig.net/yang/platform"&gt;
+        &lt;component&gt;
+          &lt;name&gt;OCH-1-1&lt;/name&gt;
+             &lt;optical-channel xmlns="http://openconfig.net/yang/terminal-device"&gt;
+               &lt;config&gt;
+                 &lt;operational-mode&gt;&lt;/operational-mode&gt;
+               &lt;/config&gt;
+             &lt;/optical-channel&gt;
+        &lt;/component&gt;
+      &lt;/components&gt;
+    &lt;/filter&gt;
+&lt;/get&gt;</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:0e56178c-a7f3-4120-a002-9174cf27e804"
+ xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
+ ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
+ xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+ &lt;data&gt;
+  &lt;components xmlns="http://openconfig.net/yang/platform"&gt;
+   &lt;component&gt;
+    &lt;name&gt;OCH-1-1&lt;/name&gt;
+    &lt;optical-channel xmlns="http://openconfig.net/yang/terminal-device"&gt;
+     &lt;config&gt;
+      &lt;operational-mode&gt;1&lt;/operational-mode&gt;
+     &lt;/config&gt;
+    &lt;/optical-channel&gt;
+   &lt;/component&gt;
+  &lt;/components&gt;
+ &lt;/data&gt;
+&lt;/rpc-reply&gt;</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AutomationFramework/excel_logs/hardware_test_hw_frequency_power_modeid_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_frequency_power_modeid_logs.xlsx
@@ -516,7 +516,7 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:f9e4935a-5ce7-4176-aaf1-30364dd260e6"
+&lt;rpc-reply message-id="urn:uuid:f0a39e5a-7607-43d2-b976-5e71f667d65f"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
@@ -579,7 +579,7 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:55b8d346-9bdb-478d-b6c8-21e357f6ef6a"
+&lt;rpc-reply message-id="urn:uuid:46423a21-92a2-42d2-858d-4f2502c1a11c"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
@@ -646,7 +646,7 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:0e56178c-a7f3-4120-a002-9174cf27e804"
+&lt;rpc-reply message-id="urn:uuid:b4764f40-b9a3-4d3a-b09d-d66bd1a845bc"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;

--- a/AutomationFramework/excel_logs/hardware_test_hw_frequency_power_modeid_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_frequency_power_modeid_logs.xlsx
@@ -516,7 +516,7 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:f0a39e5a-7607-43d2-b976-5e71f667d65f"
+&lt;rpc-reply message-id="urn:uuid:fd854350-eb87-4c4f-a8d0-f033a20add50"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
@@ -579,7 +579,7 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:46423a21-92a2-42d2-858d-4f2502c1a11c"
+&lt;rpc-reply message-id="urn:uuid:732f7af3-e362-4193-8ec8-b016b0b09984"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
@@ -646,7 +646,7 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:b4764f40-b9a3-4d3a-b09d-d66bd1a845bc"
+&lt;rpc-reply message-id="urn:uuid:e7c0c8b3-22a9-4ef9-b3af-23c5f087cef7"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
